--- a/cc_sectors.xlsx
+++ b/cc_sectors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -204,12 +204,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rice cultivations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land use change</t>
   </si>
   <si>
     <t xml:space="preserve">4.A</t>
@@ -881,14 +875,6 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/cc_sectors.xlsx
+++ b/cc_sectors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t xml:space="preserve">Rice cultivations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land use change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fires</t>
   </si>
   <si>
     <t xml:space="preserve">4.A</t>
@@ -875,6 +887,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
